--- a/Questions/Programming Language/Python/Basic/Theory.xlsx
+++ b/Questions/Programming Language/Python/Basic/Theory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Python\Basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DDC626-54D5-4AD9-BF9E-B2318A7DAFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210E9017-FF32-494C-8BA6-B5C00F9E4B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,9 +136,6 @@
     <t>Program -&gt; Module -&gt; ***** -&gt; ***** -&gt; *****</t>
   </si>
   <si>
-    <t>statement - expression -&gt; object</t>
-  </si>
-  <si>
     <t>In Python there ***** ***** type declarations</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Python is *****-typed language (type-checking happens at runtime)</t>
   </si>
   <si>
-    <t>dynamically-typed</t>
-  </si>
-  <si>
     <t>Python is *****-typed language (you can perform on the object only operations that are valid for its type)</t>
   </si>
   <si>
@@ -202,7 +196,13 @@
     <t>implemented</t>
   </si>
   <si>
-    <t>Python is dynamically-typed language (type-checking happens at *****)</t>
+    <t>dynamic-typed</t>
+  </si>
+  <si>
+    <t>Python is dynamic-typed language (type-checking happens at *****)</t>
+  </si>
+  <si>
+    <t>statement -&gt; expression -&gt; object</t>
   </si>
 </sst>
 </file>
@@ -665,8 +665,8 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -833,7 +833,7 @@
         <v>863</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>7</v>
@@ -853,7 +853,7 @@
         <v>864</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>7</v>
@@ -873,7 +873,7 @@
         <v>865</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>7</v>
@@ -982,7 +982,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -999,10 +999,10 @@
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1019,10 +1019,10 @@
         <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -1039,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>34</v>
@@ -1059,10 +1059,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1079,10 +1079,10 @@
         <v>30</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1099,10 +1099,10 @@
         <v>30</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1119,10 +1119,10 @@
         <v>30</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1139,10 +1139,10 @@
         <v>11</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1159,10 +1159,10 @@
         <v>11</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1179,10 +1179,10 @@
         <v>11</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1199,10 +1199,10 @@
         <v>11</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1219,10 +1219,10 @@
         <v>11</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>

--- a/Questions/Programming Language/Python/Basic/Theory.xlsx
+++ b/Questions/Programming Language/Python/Basic/Theory.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="1"/>
+      <selection activeCell="B11" pane="bottomLeft" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>857</v>
       </c>
@@ -547,7 +615,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>858</v>
       </c>
@@ -576,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>859</v>
       </c>
@@ -605,7 +673,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>860</v>
       </c>
@@ -634,7 +702,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>861</v>
       </c>
@@ -663,7 +731,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>862</v>
       </c>
@@ -804,7 +872,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>867</v>
       </c>
@@ -832,7 +900,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>868</v>
       </c>
@@ -860,7 +928,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>869</v>
       </c>
@@ -888,7 +956,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>870</v>
       </c>
@@ -944,7 +1012,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" t="n">
         <v>872</v>
       </c>
@@ -972,7 +1040,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" t="n">
         <v>873</v>
       </c>
@@ -1000,7 +1068,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19">
       <c r="A19" t="n">
         <v>874</v>
       </c>
@@ -1028,7 +1096,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>875</v>
       </c>
@@ -1056,7 +1124,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="21">
       <c r="A21" t="n">
         <v>876</v>
       </c>
@@ -1084,7 +1152,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="22">
       <c r="A22" t="n">
         <v>877</v>
       </c>
@@ -1112,7 +1180,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="23">
       <c r="A23" t="n">
         <v>878</v>
       </c>
@@ -1140,7 +1208,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="24">
       <c r="A24" t="n">
         <v>879</v>
       </c>
@@ -1168,7 +1236,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="25">
       <c r="A25" t="n">
         <v>880</v>
       </c>
@@ -1196,7 +1264,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="26">
       <c r="A26" t="n">
         <v>881</v>
       </c>
@@ -1224,7 +1292,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="27">
       <c r="A27" t="n">
         <v>882</v>
       </c>
@@ -1252,10 +1320,9 @@
         </is>
       </c>
     </row>
-    <row r="28"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1267,7 +1334,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1279,7 +1346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1290,7 +1357,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Basic/Theory.xlsx
+++ b/Questions/Programming Language/Python/Basic/Theory.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="1"/>
-      <selection activeCell="B11" pane="bottomLeft" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>857</v>
       </c>
@@ -615,7 +547,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>858</v>
       </c>
@@ -644,7 +576,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>859</v>
       </c>
@@ -673,7 +605,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>860</v>
       </c>
@@ -702,7 +634,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>861</v>
       </c>
@@ -731,7 +663,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>862</v>
       </c>
@@ -872,7 +804,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>867</v>
       </c>
@@ -900,7 +832,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>868</v>
       </c>
@@ -928,7 +860,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>869</v>
       </c>
@@ -956,7 +888,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>870</v>
       </c>
@@ -1012,7 +944,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" t="n">
         <v>872</v>
       </c>
@@ -1040,7 +972,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>873</v>
       </c>
@@ -1068,7 +1000,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" t="n">
         <v>874</v>
       </c>
@@ -1096,7 +1028,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>875</v>
       </c>
@@ -1124,7 +1056,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="21">
+    <row r="21" ht="41.4" customHeight="1">
       <c r="A21" t="n">
         <v>876</v>
       </c>
@@ -1152,7 +1084,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="22">
+    <row r="22" ht="41.4" customHeight="1">
       <c r="A22" t="n">
         <v>877</v>
       </c>
@@ -1180,7 +1112,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>878</v>
       </c>
@@ -1208,7 +1140,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24">
+    <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
         <v>879</v>
       </c>
@@ -1236,7 +1168,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="25">
+    <row r="25" ht="41.4" customHeight="1">
       <c r="A25" t="n">
         <v>880</v>
       </c>
@@ -1264,7 +1196,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="26">
+    <row r="26" ht="41.4" customHeight="1">
       <c r="A26" t="n">
         <v>881</v>
       </c>
@@ -1292,7 +1224,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="27">
+    <row r="27" ht="41.4" customHeight="1">
       <c r="A27" t="n">
         <v>882</v>
       </c>
@@ -1320,9 +1252,10 @@
         </is>
       </c>
     </row>
+    <row r="28"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1334,7 +1267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1346,7 +1279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1357,7 +1290,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Basic/Theory.xlsx
+++ b/Questions/Programming Language/Python/Basic/Theory.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="1"/>
-      <selection activeCell="B11" pane="bottomLeft" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>857</v>
       </c>
@@ -615,7 +547,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>858</v>
       </c>
@@ -644,7 +576,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>859</v>
       </c>
@@ -673,7 +605,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>860</v>
       </c>
@@ -702,7 +634,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>861</v>
       </c>
@@ -731,7 +663,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>862</v>
       </c>
@@ -872,7 +804,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>867</v>
       </c>
@@ -900,7 +832,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>868</v>
       </c>
@@ -928,7 +860,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>869</v>
       </c>
@@ -956,7 +888,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>870</v>
       </c>
@@ -1012,7 +944,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" t="n">
         <v>872</v>
       </c>
@@ -1040,7 +972,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>873</v>
       </c>
@@ -1068,7 +1000,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" t="n">
         <v>874</v>
       </c>
@@ -1096,7 +1028,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>875</v>
       </c>
@@ -1110,7 +1042,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Python is *****-typed language (type-checking happens at runtime)</t>
+          <t>Python is *****c-typed language (type-checking happens at runtime)</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1124,7 +1056,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="21">
+    <row r="21" ht="41.4" customHeight="1">
       <c r="A21" t="n">
         <v>876</v>
       </c>
@@ -1138,7 +1070,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>Python is *****-typed language (you can perform on the object only operations that are valid for its type)</t>
+          <t>Python is *****y-typed language (you can perform on the object only operations that are valid for its type)</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1152,7 +1084,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="22">
+    <row r="22" ht="41.4" customHeight="1">
       <c r="A22" t="n">
         <v>877</v>
       </c>
@@ -1180,7 +1112,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>878</v>
       </c>
@@ -1208,7 +1140,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24">
+    <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
         <v>879</v>
       </c>
@@ -1236,7 +1168,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="25">
+    <row r="25" ht="41.4" customHeight="1">
       <c r="A25" t="n">
         <v>880</v>
       </c>
@@ -1264,7 +1196,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="26">
+    <row r="26" ht="41.4" customHeight="1">
       <c r="A26" t="n">
         <v>881</v>
       </c>
@@ -1292,7 +1224,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="27">
+    <row r="27" ht="41.4" customHeight="1">
       <c r="A27" t="n">
         <v>882</v>
       </c>
@@ -1320,9 +1252,10 @@
         </is>
       </c>
     </row>
+    <row r="28"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1334,7 +1267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1346,7 +1279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1357,7 +1290,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Basic/Theory.xlsx
+++ b/Questions/Programming Language/Python/Basic/Theory.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
@@ -1252,7 +1320,6 @@
         </is>
       </c>
     </row>
-    <row r="28"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Python/Basic/Theory.xlsx
+++ b/Questions/Programming Language/Python/Basic/Theory.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
@@ -1320,6 +1252,7 @@
         </is>
       </c>
     </row>
+    <row r="28"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Python/Basic/Theory.xlsx
+++ b/Questions/Programming Language/Python/Basic/Theory.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Python/Basic/Theory.xlsx
+++ b/Questions/Programming Language/Python/Basic/Theory.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Python/Basic/Theory.xlsx
+++ b/Questions/Programming Language/Python/Basic/Theory.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -561,7 +629,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>***** (programming principle) - do this, then that</t>
+          <t>***************** (programming principle) - do this, then that</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -619,7 +687,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>***** (programming principle) - do this if that is true</t>
+          <t>********** (programming principle) - do this if that is true</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -677,7 +745,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>***** (programming principle) - do this many times</t>
+          <t>********** (programming principle) - do this many times</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -706,7 +774,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>Programs are composed of *****</t>
+          <t>Programs are composed of *********</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -734,7 +802,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>Modules contain *****</t>
+          <t>Modules contain **********</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -762,7 +830,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>Statements contain *****</t>
+          <t>Statements contain **************</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -790,7 +858,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>Expressions create and process *****</t>
+          <t>Expressions create and process *********</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -818,7 +886,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>***** -&gt; Module -&gt; Statement -&gt; Expression -&gt; Object</t>
+          <t>*************** -&gt; Module -&gt; Statement -&gt; Expression -&gt; Object</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -846,7 +914,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>Program -&gt; Module -&gt; Statement -&gt; Expression -&gt; *****</t>
+          <t>Program -&gt; Module -&gt; Statement -&gt; Expression -&gt; *******</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -958,7 +1026,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>The syntax of the expressions determines the ***** of the object</t>
+          <t>The syntax of the expressions determines the **** of the object</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -1014,7 +1082,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>Python is dynamic-typed language (type-checking happens at *****)</t>
+          <t>Python is dynamic-typed language (type-checking happens at *******)</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1098,7 +1166,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>Python is strongly-typed language (you can perform on the object only operations that are valid for its *****)</t>
+          <t>Python is strongly-typed language (you can perform on the object only operations that are valid for its ****)</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1126,7 +1194,7 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>Built-In data-structures are often all you need to ***** the structure of the problem</t>
+          <t>Built-In data-structures are often all you need to ***************** the structure of the problem</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -1154,7 +1222,7 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>Manually implemented data-structures are often built on top of *****-in data-structures</t>
+          <t>Manually implemented data-structures are often built on top of ********-in data-structures</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -1182,7 +1250,7 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>Built-In data-structures are often ***** efficient than a custom alternative (already implemented optimally in C)</t>
+          <t>Built-In data-structures are often **** efficient than a custom alternative (already implemented optimally in C)</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
@@ -1210,7 +1278,7 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>Built-In data-structures are often more efficient ***** a custom alternative (already implemented optimally in C)</t>
+          <t>Built-In data-structures are often more efficient **** a custom alternative (already implemented optimally in C)</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1238,7 +1306,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>Built-In data-structures are often more efficient than a custom alternative (already i***** optimally in C)</t>
+          <t>Built-In data-structures are often more efficient than a custom alternative (already i********** optimally in C)</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">

--- a/Questions/Programming Language/Python/Basic/Theory.xlsx
+++ b/Questions/Programming Language/Python/Basic/Theory.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -629,7 +561,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>***************** (programming principle) - do this, then that</t>
+          <t>***** (programming principle) - do this, then that</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -687,7 +619,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>********** (programming principle) - do this if that is true</t>
+          <t>***** (programming principle) - do this if that is true</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -745,7 +677,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>********** (programming principle) - do this many times</t>
+          <t>***** (programming principle) - do this many times</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -774,7 +706,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>Programs are composed of *********</t>
+          <t>Programs are composed of *****</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -802,7 +734,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>Modules contain **********</t>
+          <t>Modules contain *****</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -830,7 +762,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>Statements contain **************</t>
+          <t>Statements contain *****</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -858,7 +790,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>Expressions create and process *********</t>
+          <t>Expressions create and process *****</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -886,7 +818,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>*************** -&gt; Module -&gt; Statement -&gt; Expression -&gt; Object</t>
+          <t>***** -&gt; Module -&gt; Statement -&gt; Expression -&gt; Object</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -914,7 +846,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>Program -&gt; Module -&gt; Statement -&gt; Expression -&gt; *******</t>
+          <t>Program -&gt; Module -&gt; Statement -&gt; Expression -&gt; *****</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -1082,7 +1014,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>Python is dynamic-typed language (type-checking happens at *******)</t>
+          <t>Python is dynamic-typed language (type-checking happens at *****)</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1194,7 +1126,7 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>Built-In data-structures are often all you need to ***************** the structure of the problem</t>
+          <t>Built-In data-structures are often all you need to ***** the structure of the problem</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -1222,7 +1154,7 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>Manually implemented data-structures are often built on top of ********-in data-structures</t>
+          <t>Manually implemented data-structures are often built on top of *****-in data-structures</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -1306,7 +1238,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>Built-In data-structures are often more efficient than a custom alternative (already i********** optimally in C)</t>
+          <t>Built-In data-structures are often more efficient than a custom alternative (already i***** optimally in C)</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
